--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r102_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r102_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -853,10 +865,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -900,28 +912,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -946,28 +958,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1200,10 +1212,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1247,28 +1259,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1293,28 +1305,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1547,10 +1559,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1594,28 +1606,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1640,28 +1652,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1894,10 +1906,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1941,28 +1953,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1987,28 +1999,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2125,10 +2137,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2172,28 +2184,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2218,28 +2230,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2414,10 +2426,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2461,28 +2473,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2507,28 +2519,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2703,10 +2715,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2750,28 +2762,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2796,28 +2808,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2963,10 +2975,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3010,28 +3022,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3056,28 +3068,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3223,10 +3235,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3270,28 +3282,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3316,28 +3328,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3483,10 +3495,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3530,28 +3542,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3576,28 +3588,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3714,10 +3726,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3761,28 +3773,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3807,28 +3819,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3916,10 +3928,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3963,28 +3975,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4009,28 +4021,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4118,10 +4130,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4165,28 +4177,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4211,28 +4223,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4320,10 +4332,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4367,28 +4379,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4413,28 +4425,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4551,10 +4563,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4598,28 +4610,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4644,28 +4656,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4753,10 +4765,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4800,28 +4812,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4846,28 +4858,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4984,10 +4996,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5031,28 +5043,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5077,28 +5089,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5244,10 +5256,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5291,28 +5303,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5337,28 +5349,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5446,10 +5458,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5493,28 +5505,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5539,28 +5551,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5648,10 +5660,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5695,28 +5707,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5741,28 +5753,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5821,10 +5833,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5868,28 +5880,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5914,28 +5926,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6023,10 +6035,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6070,28 +6082,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6116,28 +6128,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6196,10 +6208,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6243,28 +6255,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6289,28 +6301,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6398,10 +6410,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6445,28 +6457,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6491,28 +6503,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6571,10 +6583,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6618,28 +6630,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6664,28 +6676,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6773,10 +6785,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6820,28 +6832,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6866,28 +6878,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6946,10 +6958,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6993,28 +7005,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7039,28 +7051,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7119,10 +7131,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7166,28 +7178,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7212,28 +7224,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7292,10 +7304,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="2" t="s">
+      <c r="J248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7339,28 +7351,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="2">
+      <c r="A250" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="2">
+      <c r="C250" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7385,28 +7397,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="2">
+      <c r="C252" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="2">
+      <c r="D252" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="2">
+      <c r="I252" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7494,10 +7506,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7541,28 +7553,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7587,28 +7599,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7667,10 +7679,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
